--- a/Proyek Perangkat Lunak/Estimasi Biaya PPL.xlsx
+++ b/Proyek Perangkat Lunak/Estimasi Biaya PPL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\OneDrive\Documents\Semester-4\Proyek Perangkat Lunak\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9C19E5-D405-4C9E-A956-B134B4C56102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5C130D-1761-4663-BA27-5ECA57BA0CFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{BFE094B7-2B58-46D6-9B05-8EF8B0830217}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="14496" activeTab="1" xr2:uid="{BFE094B7-2B58-46D6-9B05-8EF8B0830217}"/>
   </bookViews>
   <sheets>
     <sheet name="Estimasi Biaya" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -263,6 +263,33 @@
   </si>
   <si>
     <t>Ibrahim Mahardika</t>
+  </si>
+  <si>
+    <t>Peran</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>Anggota tim</t>
+  </si>
+  <si>
+    <t>Owner PT. Indo Digital</t>
+  </si>
+  <si>
+    <t>Rangga Santoso</t>
+  </si>
+  <si>
+    <t>Ridwan Saragih</t>
+  </si>
+  <si>
+    <t>Rina Permata</t>
+  </si>
+  <si>
+    <t>Jelita Mandasari</t>
+  </si>
+  <si>
+    <t>Gatra Mahendra</t>
   </si>
 </sst>
 </file>
@@ -287,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +330,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +367,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -366,6 +399,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -684,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB2AE902-3023-458C-A649-F853839B1A53}">
   <dimension ref="B2:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView topLeftCell="B13" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,14 +968,14 @@
         <v>16</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="3">
         <v>1500000</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="0"/>
-        <v>1500000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
@@ -1049,14 +1088,14 @@
         <v>16</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="3">
         <v>2000000</v>
       </c>
       <c r="H17" s="3">
         <f>F17*G17</f>
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
@@ -1073,14 +1112,14 @@
         <v>16</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="3">
         <v>2000000</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="0"/>
-        <v>4000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
@@ -1267,7 +1306,7 @@
       </c>
       <c r="H27" s="5">
         <f>SUM(H4:H26)</f>
-        <v>39600000</v>
+        <v>46600000</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
@@ -1383,7 +1422,7 @@
       <c r="G33" s="12"/>
       <c r="H33" s="5">
         <f>H27+H32</f>
-        <v>41050000</v>
+        <v>48050000</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
@@ -1414,7 +1453,7 @@
       <c r="G35" s="2"/>
       <c r="H35" s="3">
         <f>H33*F35</f>
-        <v>4105000</v>
+        <v>4805000</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -1432,7 +1471,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="3">
         <f>H33*F36</f>
-        <v>12315000</v>
+        <v>14415000</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.3">
@@ -1446,7 +1485,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="5">
         <f>SUM(H35:H36)</f>
-        <v>16420000</v>
+        <v>19220000</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.3">
@@ -1460,7 +1499,7 @@
       <c r="G38" s="13"/>
       <c r="H38" s="7">
         <f>H33+H37</f>
-        <v>57470000</v>
+        <v>67270000</v>
       </c>
     </row>
   </sheetData>
@@ -1482,39 +1521,121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CC1E549-D87C-478C-B234-F0940412649A}">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="10"/>
+    <col min="2" max="2" width="24.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B1" s="10"/>
+    </row>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+      <c r="C3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
